--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -740,68 +740,68 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -48,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>轨迹ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   <si>
     <t>TestStruct
 [test1 , test2 , test3 , test4 , test6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -710,66 +710,66 @@
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -777,31 +777,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
@@ -838,98 +838,98 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
         <v>410</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="3">
         <v>5522677700</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="3">
         <v>5522677700</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
@@ -954,14 +954,14 @@
     </row>
     <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -972,7 +972,7 @@
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -987,77 +987,77 @@
     </row>
     <row r="19" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1124,14 +1124,14 @@
     </row>
     <row r="45" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -1215,14 +1215,14 @@
     </row>
     <row r="64" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="122" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122"/>
     </row>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="125" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D125"/>
     </row>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="146" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D146"/>
     </row>
@@ -1545,31 +1545,31 @@
     </row>
     <row r="151" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D151"/>
     </row>
     <row r="152" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D152"/>
     </row>
     <row r="153" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153"/>
     </row>
     <row r="154" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D154"/>
     </row>
     <row r="155" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D155"/>
     </row>

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>起始点</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>int64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -804,105 +808,105 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2">
-        <v>410</v>
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5522677700</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>410</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -914,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -923,18 +927,46 @@
         <v>5522677700</v>
       </c>
       <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5522677700</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="D8"/>
-      <c r="E8"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D9"/>
@@ -953,9 +985,6 @@
       <c r="E12"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
@@ -967,17 +996,20 @@
       <c r="E14"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
@@ -986,9 +1018,6 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
@@ -1063,6 +1092,9 @@
       <c r="E29"/>
     </row>
     <row r="30" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
     </row>
@@ -1123,9 +1155,6 @@
       <c r="E44"/>
     </row>
     <row r="45" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
@@ -1137,6 +1166,9 @@
       <c r="E46"/>
     </row>
     <row r="47" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
@@ -1157,13 +1189,13 @@
       <c r="E51"/>
     </row>
     <row r="52" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
     </row>
@@ -1172,13 +1204,13 @@
       <c r="E54"/>
     </row>
     <row r="55" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
       <c r="D55"/>
       <c r="E55"/>
     </row>
     <row r="56" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
       <c r="D56"/>
       <c r="E56"/>
     </row>
@@ -1195,13 +1227,13 @@
       <c r="E59"/>
     </row>
     <row r="60" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
       <c r="D60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
     </row>
@@ -1214,9 +1246,6 @@
       <c r="E63"/>
     </row>
     <row r="64" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
@@ -1228,6 +1257,9 @@
       <c r="E65"/>
     </row>
     <row r="66" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
       <c r="D66"/>
       <c r="E66"/>
     </row>
@@ -1437,6 +1469,7 @@
     </row>
     <row r="118" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D118"/>
+      <c r="E118"/>
     </row>
     <row r="119" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D119"/>
@@ -1448,24 +1481,24 @@
       <c r="D121"/>
     </row>
     <row r="122" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
-        <v>20</v>
-      </c>
       <c r="D122"/>
     </row>
     <row r="123" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
       <c r="D123"/>
     </row>
     <row r="124" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="D124"/>
     </row>
     <row r="125" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
-        <v>20</v>
-      </c>
       <c r="D125"/>
     </row>
     <row r="126" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
       <c r="D126"/>
     </row>
     <row r="127" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
@@ -1526,12 +1559,12 @@
       <c r="D145"/>
     </row>
     <row r="146" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B146" t="s">
-        <v>20</v>
-      </c>
       <c r="D146"/>
     </row>
     <row r="147" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
       <c r="D147"/>
     </row>
     <row r="148" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
@@ -1544,9 +1577,6 @@
       <c r="D150"/>
     </row>
     <row r="151" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B151" t="s">
-        <v>20</v>
-      </c>
       <c r="D151"/>
     </row>
     <row r="152" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
@@ -1574,7 +1604,13 @@
       <c r="D155"/>
     </row>
     <row r="156" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
       <c r="D156"/>
+    </row>
+    <row r="157" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D157"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>起始点</t>
   </si>
@@ -189,43 +189,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bool,long,float,int,string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>True , 123,123.2,1231,asdf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>True , 123,123.2,1232,asdf</t>
-  </si>
-  <si>
-    <t>True , 123,123.2,1233,asdf</t>
-  </si>
-  <si>
     <t>结构体数组</t>
-  </si>
-  <si>
-    <t>TestStructArray[test1 , test2 , test3 , test4 , test5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv][0 , 123,123.2,1232,2zxcv]</t>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv][0 , 123,123.2,1232,3zxcv]</t>
-  </si>
-  <si>
-    <t>[bool,long,float,int,string]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv][0 , 123,123.2,1232,1zxcv]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[2003,2005,2006]</t>
@@ -242,6 +210,38 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStructArray[test1 , test2 , test3 , test4 , test5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bool,long,float,int,ActivityConfig]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool,long,ActivityConfig,int,string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,1,1231,asdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,1,1232,asdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,1,1233,asdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1][0 , 123,123.2,1232,1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1][0 , 123,123.2,1232,3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +697,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -741,12 +741,12 @@
         <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -770,10 +770,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
@@ -810,34 +810,34 @@
     </row>
     <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -898,10 +898,10 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -930,10 +930,10 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -962,10 +962,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
